--- a/data/documentation/spreadsheets/done/chrismaltby@gb-studio.xlsx
+++ b/data/documentation/spreadsheets/done/chrismaltby@gb-studio.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20370"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20371"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fronchettl\Documents\GitHub\usp\data\documentation\spreadsheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fronchettl\Documents\GitHub\usp\data\documentation\spreadsheets\done\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96ADA6FC-0C05-424C-A37D-8ADA962B7327}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9671953C-275A-4254-80F4-E4AE2490C460}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10344" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
     <t>CF – Contribution flow</t>
   </si>
@@ -395,7 +395,7 @@
   <dimension ref="A1:G1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6171875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -483,9 +483,6 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" t="s">
         <v>16</v>
       </c>
     </row>
